--- a/Processed Results/Nexus 5X/Magnetic Field/Magnetic Field - Processed.xlsx
+++ b/Processed Results/Nexus 5X/Magnetic Field/Magnetic Field - Processed.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Mi 9T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Magnetic Field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F37BB0B4-5056-48F1-BB53-253627C65422}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7381DB66-D73F-4FD6-B561-A5EF599F163F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="130" yWindow="120" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,8 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -252,94 +254,94 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>95.335919999999902</c:v>
+                  <c:v>117.82044</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>124.62372000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.06644</c:v>
+                  <c:v>119.985119999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>119.8305</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.695719999999994</c:v>
+                  <c:v>120.44898000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>97.223759999999999</c:v>
+                  <c:v>120.6036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>97.223759999999999</c:v>
+                  <c:v>124.77834</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>120.44898000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>120.13974</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>120.758219999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95.807879999999997</c:v>
+                  <c:v>119.8305</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>96.437159999999906</c:v>
+                  <c:v>121.22208000000001</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>119.36664</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>120.13974</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>96.437159999999906</c:v>
+                  <c:v>119.36664</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>96.909120000000001</c:v>
+                  <c:v>119.36664</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>123.077519999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>118.12967999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>120.758219999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>122.1498</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>96.909120000000001</c:v>
+                  <c:v>118.28429999999901</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>98.639639999999901</c:v>
+                  <c:v>120.758219999999</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.538399999999996</c:v>
+                  <c:v>120.91284</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>119.67588000000001</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>96.909120000000001</c:v>
+                  <c:v>120.44898000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>96.437159999999906</c:v>
+                  <c:v>121.995179999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>123.54138</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>94.863960000000006</c:v>
+                  <c:v>119.36664</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>96.594480000000004</c:v>
+                  <c:v>115.34652</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>96.751800000000003</c:v>
+                  <c:v>119.8305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -415,10 +417,10 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>96.720336000000003</c:v>
+                  <c:v>120.43351799999978</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>96.720336000000003</c:v>
+                  <c:v>120.43351799999978</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -770,10 +772,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -821,7 +823,7 @@
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
-        <cx:valScaling max="99" min="94.5"/>
+        <cx:valScaling max="126" min="114"/>
         <cx:title>
           <cx:tx>
             <cx:txData>
@@ -2389,12 +2391,13 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="B4" activeCellId="2" sqref="B2 B3 B4:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="2" max="2" width="9.90625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2411,7 +2414,7 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <v>95.335919999999902</v>
+        <v>117.82044</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>1</v>
@@ -2425,14 +2428,14 @@
         <v>3</v>
       </c>
       <c r="B3" s="1">
-        <v>96.751800000000003</v>
+        <v>124.62372000000001</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>96.720336000000003</v>
+        <v>120.43351799999978</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -2440,14 +2443,14 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>97.06644</v>
+        <v>119.985119999999</v>
       </c>
       <c r="D4">
         <v>30</v>
       </c>
       <c r="E4" s="1">
         <f>AVERAGE(B2,B3,B4,B5,B6,B7,B8,B9,B10,B11,B12,B13,B14,B15,B16,B17,B18,B19,B21,B20,B22,B23,B24,B25,B26,B27,B28,B29,B30,B31)</f>
-        <v>96.720336000000003</v>
+        <v>120.43351799999978</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -2455,7 +2458,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>96.594480000000004</v>
+        <v>119.8305</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -2463,7 +2466,7 @@
         <v>3</v>
       </c>
       <c r="B6" s="1">
-        <v>97.695719999999994</v>
+        <v>120.44898000000001</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>4</v>
@@ -2477,15 +2480,15 @@
         <v>3</v>
       </c>
       <c r="B7" s="1">
-        <v>97.223759999999999</v>
+        <v>120.6036</v>
       </c>
       <c r="D7" s="1">
         <f>MIN(B2:B31)</f>
-        <v>94.863960000000006</v>
+        <v>115.34652</v>
       </c>
       <c r="E7" s="1">
         <f>MAX(B2:B31)</f>
-        <v>98.639639999999901</v>
+        <v>124.77834</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -2493,7 +2496,7 @@
         <v>3</v>
       </c>
       <c r="B8" s="1">
-        <v>97.223759999999999</v>
+        <v>124.77834</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -2501,7 +2504,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="1">
-        <v>96.751800000000003</v>
+        <v>120.44898000000001</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
@@ -2515,15 +2518,15 @@
         <v>3</v>
       </c>
       <c r="B10" s="1">
-        <v>96.751800000000003</v>
+        <v>120.13974</v>
       </c>
       <c r="D10">
         <f>QUARTILE(B2:B31, 1)</f>
-        <v>96.594480000000004</v>
+        <v>119.44395</v>
       </c>
       <c r="E10">
         <f>QUARTILE(B2:B31, 2)</f>
-        <v>96.751800000000003</v>
+        <v>120.29436000000001</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -2531,7 +2534,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="1">
-        <v>96.594480000000004</v>
+        <v>120.758219999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -2539,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="1">
-        <v>95.807879999999997</v>
+        <v>119.8305</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>8</v>
@@ -2553,15 +2556,15 @@
         <v>3</v>
       </c>
       <c r="B13" s="1">
-        <v>96.437159999999906</v>
+        <v>121.22208000000001</v>
       </c>
       <c r="D13">
         <f>QUARTILE(B2:B31, 3)</f>
-        <v>96.909120000000001</v>
+        <v>120.87418499999976</v>
       </c>
       <c r="E13">
         <f xml:space="preserve"> D13 - D10</f>
-        <v>0.31463999999999714</v>
+        <v>1.4302349999997546</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -2569,7 +2572,7 @@
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <v>96.751800000000003</v>
+        <v>119.36664</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
@@ -2577,7 +2580,7 @@
         <v>3</v>
       </c>
       <c r="B15" s="1">
-        <v>96.594480000000004</v>
+        <v>120.13974</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>10</v>
@@ -2591,15 +2594,15 @@
         <v>3</v>
       </c>
       <c r="B16" s="1">
-        <v>96.437159999999906</v>
+        <v>119.36664</v>
       </c>
       <c r="D16">
         <f>STDEV(B2:B31)</f>
-        <v>0.65895914595566607</v>
+        <v>1.9377447034675064</v>
       </c>
       <c r="E16">
         <f xml:space="preserve"> (D16 / E4) * 100</f>
-        <v>0.6813036153593035</v>
+        <v>1.6089745908340152</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -2607,7 +2610,7 @@
         <v>3</v>
       </c>
       <c r="B17" s="1">
-        <v>96.909120000000001</v>
+        <v>119.36664</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -2615,7 +2618,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="1">
-        <v>96.751800000000003</v>
+        <v>123.077519999999</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -2623,7 +2626,7 @@
         <v>3</v>
       </c>
       <c r="B19" s="1">
-        <v>96.594480000000004</v>
+        <v>118.12967999999999</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -2631,7 +2634,7 @@
         <v>3</v>
       </c>
       <c r="B20" s="1">
-        <v>96.594480000000004</v>
+        <v>120.758219999999</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -2639,7 +2642,7 @@
         <v>3</v>
       </c>
       <c r="B21" s="1">
-        <v>96.751800000000003</v>
+        <v>122.1498</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -2647,7 +2650,7 @@
         <v>3</v>
       </c>
       <c r="B22" s="1">
-        <v>96.909120000000001</v>
+        <v>118.28429999999901</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -2655,7 +2658,7 @@
         <v>3</v>
       </c>
       <c r="B23" s="1">
-        <v>98.639639999999901</v>
+        <v>120.758219999999</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -2663,7 +2666,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="1">
-        <v>97.538399999999996</v>
+        <v>120.91284</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -2671,7 +2674,7 @@
         <v>3</v>
       </c>
       <c r="B25" s="1">
-        <v>96.594480000000004</v>
+        <v>119.67588000000001</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -2679,7 +2682,7 @@
         <v>3</v>
       </c>
       <c r="B26" s="1">
-        <v>96.909120000000001</v>
+        <v>120.44898000000001</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -2687,7 +2690,7 @@
         <v>3</v>
       </c>
       <c r="B27" s="1">
-        <v>96.437159999999906</v>
+        <v>121.995179999999</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -2695,7 +2698,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="1">
-        <v>96.751800000000003</v>
+        <v>123.54138</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -2703,7 +2706,7 @@
         <v>3</v>
       </c>
       <c r="B29" s="1">
-        <v>94.863960000000006</v>
+        <v>119.36664</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -2711,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="B30" s="1">
-        <v>96.594480000000004</v>
+        <v>115.34652</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -2719,7 +2722,7 @@
         <v>3</v>
       </c>
       <c r="B31" s="1">
-        <v>96.751800000000003</v>
+        <v>119.8305</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">

--- a/Processed Results/Nexus 5X/Magnetic Field/Magnetic Field - Processed.xlsx
+++ b/Processed Results/Nexus 5X/Magnetic Field/Magnetic Field - Processed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luuk1\Desktop\Bachelor Project\BachelorProject\Processed Results\Nexus 5X\Magnetic Field\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7381DB66-D73F-4FD6-B561-A5EF599F163F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{300E0FFE-84BF-4B3F-9A22-D8C92AAF0741}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="130" yWindow="120" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="9990" windowHeight="9830" xr2:uid="{BD96B59B-3C3E-42C2-91CD-DAE8785DB1E9}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -18,8 +18,6 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Blad1!$A$2:$A$31</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Blad1!$B$2:$B$31</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">Blad1!$A$2:$A$31</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">Blad1!$B$2:$B$31</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="14">
   <si>
     <t>Mean line</t>
   </si>
@@ -75,6 +73,12 @@
   </si>
   <si>
     <t>Relative std</t>
+  </si>
+  <si>
+    <t>Mean increase</t>
+  </si>
+  <si>
+    <t>Median increase</t>
   </si>
 </sst>
 </file>
@@ -772,10 +776,10 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:strDim type="cat">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:strDim>
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -2057,7 +2061,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8699500" y="179613"/>
+              <a:off x="8807450" y="179613"/>
               <a:ext cx="4586514" cy="2786743"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -2388,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FE0459-F6C0-45BE-AD60-56F63431C3F0}">
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B4" activeCellId="2" sqref="B2 B3 B4:B31"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2605,7 +2609,7 @@
         <v>1.6089745908340152</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>3</v>
       </c>
@@ -2613,23 +2617,37 @@
         <v>119.36664</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>3</v>
       </c>
       <c r="B18" s="1">
         <v>123.077519999999</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D18" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>3</v>
       </c>
       <c r="B19" s="1">
         <v>118.12967999999999</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D19">
+        <f xml:space="preserve"> ((E3 / 114.202998) * 100) - 100</f>
+        <v>5.4556536247846878</v>
+      </c>
+      <c r="F19">
+        <f xml:space="preserve"> ((E10 / 113.658804) * 100) - 100</f>
+        <v>5.8381363928481989</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2655,7 @@
         <v>120.758219999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>3</v>
       </c>
@@ -2645,7 +2663,7 @@
         <v>122.1498</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>3</v>
       </c>
@@ -2653,7 +2671,7 @@
         <v>118.28429999999901</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2679,7 @@
         <v>120.758219999999</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -2669,7 +2687,7 @@
         <v>120.91284</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>3</v>
       </c>
@@ -2677,7 +2695,7 @@
         <v>119.67588000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>3</v>
       </c>
@@ -2685,7 +2703,7 @@
         <v>120.44898000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>3</v>
       </c>
@@ -2693,7 +2711,7 @@
         <v>121.995179999999</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -2701,7 +2719,7 @@
         <v>123.54138</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>3</v>
       </c>
@@ -2709,7 +2727,7 @@
         <v>119.36664</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -2717,7 +2735,7 @@
         <v>115.34652</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -2725,7 +2743,7 @@
         <v>119.8305</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" s="2"/>
     </row>
   </sheetData>
